--- a/experiments/paper_reproducible_results/dissociative_leaderboard.xlsx
+++ b/experiments/paper_reproducible_results/dissociative_leaderboard.xlsx
@@ -458,13 +458,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.05785123966942</v>
+        <v>10.18002436053593</v>
       </c>
       <c r="C2" t="n">
-        <v>8.409951325040563</v>
+        <v>6.65430347987346</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3031827063875689</v>
+        <v>0.3486220974979611</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.35103305785124</v>
+        <v>11.70133982947625</v>
       </c>
       <c r="C3" t="n">
-        <v>4.772850189291509</v>
+        <v>1.74539107668812</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2855861059981017</v>
+        <v>0.2427499581321458</v>
       </c>
     </row>
     <row r="4">
@@ -490,13 +490,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.95619834710744</v>
+        <v>13.27283800243605</v>
       </c>
       <c r="C4" t="n">
-        <v>2.460789616008654</v>
+        <v>0.8399694556561579</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2430292982965111</v>
+        <v>0.2056880326673327</v>
       </c>
     </row>
     <row r="5">
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.784504132231405</v>
+        <v>8.807551766138856</v>
       </c>
       <c r="C5" t="n">
-        <v>6.828015143320713</v>
+        <v>6.905203447147376</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3490976858915624</v>
+        <v>0.4032096600796018</v>
       </c>
     </row>
     <row r="6">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.7547520661157</v>
+        <v>20.83410475030451</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2028123309897242</v>
+        <v>0.04363477691720302</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01855057745754619</v>
+        <v>0.0177330210777426</v>
       </c>
     </row>
     <row r="7">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.94380165289256</v>
+        <v>14.66090133982948</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5949161709031909</v>
+        <v>0.3381695211083233</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08016675369711466</v>
+        <v>0.0834914691450776</v>
       </c>
     </row>
     <row r="8">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.67727272727273</v>
+        <v>15.89671132764921</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1487290427257977</v>
+        <v>0.1527217192102105</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09181600479505395</v>
+        <v>0.1122246454202023</v>
       </c>
     </row>
     <row r="9">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.160123966942148</v>
+        <v>10.62021924482339</v>
       </c>
       <c r="C9" t="n">
-        <v>2.460789616008654</v>
+        <v>0.9054216210319624</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2911311368751339</v>
+        <v>0.2613906717828082</v>
       </c>
     </row>
     <row r="10">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.06301652892562</v>
+        <v>21.09719853836785</v>
       </c>
       <c r="C10" t="n">
-        <v>0.175770686857761</v>
+        <v>0.05454347114650376</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01561942196482638</v>
+        <v>0.0147401612453411</v>
       </c>
     </row>
     <row r="11">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.198347107438016</v>
+        <v>9.83824604141291</v>
       </c>
       <c r="C11" t="n">
-        <v>6.36830719307734</v>
+        <v>3.174430020726519</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3363857905589593</v>
+        <v>0.3138081747184702</v>
       </c>
     </row>
     <row r="12">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.39896694214876</v>
+        <v>16.74811205846528</v>
       </c>
       <c r="C12" t="n">
-        <v>0.175770686857761</v>
+        <v>0.06545216537580452</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08703140788885017</v>
+        <v>0.1071919478035004</v>
       </c>
     </row>
     <row r="13">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.81198347107438</v>
+        <v>6.686967113276492</v>
       </c>
       <c r="C13" t="n">
-        <v>8.504597079502433</v>
+        <v>8.683320606523399</v>
       </c>
       <c r="D13" t="n">
-        <v>0.385274260030373</v>
+        <v>0.4544908917892112</v>
       </c>
     </row>
     <row r="14">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.972314049586777</v>
+        <v>4.132277710109622</v>
       </c>
       <c r="C14" t="n">
-        <v>40.68415359653867</v>
+        <v>26.1045052907167</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6370975920923688</v>
+        <v>0.6539220557363562</v>
       </c>
     </row>
     <row r="15">
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.541942148760331</v>
+        <v>7.678928136419001</v>
       </c>
       <c r="C15" t="n">
-        <v>7.030827474310438</v>
+        <v>6.861568670230174</v>
       </c>
       <c r="D15" t="n">
-        <v>0.380616971857993</v>
+        <v>0.4571576215196975</v>
       </c>
     </row>
     <row r="16">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.953305785123966</v>
+        <v>7.904993909866017</v>
       </c>
       <c r="C16" t="n">
-        <v>7.936722552731205</v>
+        <v>8.061525035453258</v>
       </c>
       <c r="D16" t="n">
-        <v>0.374131486327716</v>
+        <v>0.443852521967921</v>
       </c>
     </row>
     <row r="17">
@@ -698,13 +698,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.69938016528926</v>
+        <v>13.03873325213155</v>
       </c>
       <c r="C17" t="n">
-        <v>5.191995673336939</v>
+        <v>4.778008072433729</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2794845927662017</v>
+        <v>0.3071620821343715</v>
       </c>
     </row>
     <row r="18">
@@ -714,13 +714,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.70743801652893</v>
+        <v>18.38538367844093</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3380205516495403</v>
+        <v>0.2399912730446165</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02812309014915854</v>
+        <v>0.03042505727162112</v>
       </c>
     </row>
     <row r="19">
@@ -730,13 +730,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.98801652892562</v>
+        <v>17.13568818514007</v>
       </c>
       <c r="C19" t="n">
-        <v>3.096268253109789</v>
+        <v>1.930838878586233</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0830585560217873</v>
+        <v>0.08252537353697241</v>
       </c>
     </row>
     <row r="20">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.79338842975207</v>
+        <v>15.24823386114494</v>
       </c>
       <c r="C20" t="n">
-        <v>2.785289345592212</v>
+        <v>2.356277953528962</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1799597964870217</v>
+        <v>0.2084616501430596</v>
       </c>
     </row>
     <row r="21">
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.91528925619835</v>
+        <v>15.84774665042631</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3515413737155219</v>
+        <v>0.2508999672739173</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0795166349749365</v>
+        <v>0.08440841665641519</v>
       </c>
     </row>
     <row r="22">
@@ -778,13 +778,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.971074380165289</v>
+        <v>9.018757612667478</v>
       </c>
       <c r="C22" t="n">
-        <v>6.003244997295836</v>
+        <v>5.956147049198211</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3155091814006464</v>
+        <v>0.3607757503679442</v>
       </c>
     </row>
     <row r="23">
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.61053719008265</v>
+        <v>11.10012180267966</v>
       </c>
       <c r="C23" t="n">
-        <v>6.287182260681449</v>
+        <v>6.294316570306534</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3017878964408026</v>
+        <v>0.3397309400732188</v>
       </c>
     </row>
     <row r="24">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11.69297520661157</v>
+        <v>11.12326431181486</v>
       </c>
       <c r="C24" t="n">
-        <v>5.895078420767982</v>
+        <v>5.476164503108978</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2994531634059845</v>
+        <v>0.330310004955304</v>
       </c>
     </row>
     <row r="25">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.529338842975207</v>
+        <v>9.340316686967114</v>
       </c>
       <c r="C25" t="n">
-        <v>6.003244997295836</v>
+        <v>5.748881858841496</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3168099193898205</v>
+        <v>0.351566428712159</v>
       </c>
     </row>
     <row r="26">
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.61322314049587</v>
+        <v>9.708160779537149</v>
       </c>
       <c r="C26" t="n">
-        <v>5.976203353163872</v>
+        <v>5.781607941529399</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3045596289630811</v>
+        <v>0.3445139193031103</v>
       </c>
     </row>
   </sheetData>
